--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\PycharmProjects\pythonProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\PycharmProjects\fhir_questionnaire_item_populator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAA5AFA-05F5-42AA-96DF-846E3EE6DC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A0B431-274D-4EAE-8F4C-82C0B69810CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6CCBEFA-14F7-4D58-B784-0C5A9DA8EF6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D6CCBEFA-14F7-4D58-B784-0C5A9DA8EF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>linkid</t>
   </si>
@@ -127,22 +127,51 @@
   </si>
   <si>
     <t>J’ai été vu·e dès que cela m’a semblé nécessaire</t>
+  </si>
+  <si>
+    <t>Wurden bei Ihnen in den letzten 12 Monate eine oder mehrere diagnostische Untersuchungen wegen Krebs in dem im Einladungsschreiben genannten Spital durchgeführt, wie zum Beispiel eine Endoskopie, eine Biopsie, eine Mammographie oder eine Computertomographie?</t>
+  </si>
+  <si>
+    <t>Au cours des 12 derniers mois, avez-vous effectué un ou plusieurs examens diagnostiques pour le cancer, tels qu’une endoscopie, une biopsie, une mammographie ou un scanner, à l’hôpital mentionné dans la lettre d’invitation ?</t>
+  </si>
+  <si>
+    <t>Avant l’examen, aviez-vous toutes les informations dont vous aviez besoin concernant cet examen ?</t>
+  </si>
+  <si>
+    <t>Haben Sie vor der Untersuchung alle Informationen erhalten, die Sie darüber benötigten?</t>
+  </si>
+  <si>
+    <t>Ja, absolut</t>
+  </si>
+  <si>
+    <t>Ja, bis zu einem gewissen Grad</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Oui, tout à fait</t>
+  </si>
+  <si>
+    <t>Oui, dans une certaine mesure</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Oui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -168,12 +197,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -189,7 +217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -505,30 +533,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940D8FA8-F46D-42CA-8551-324811725356}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="58.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="142.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="150.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -657,17 +675,75 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E7" s="1"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -682,7 +758,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\PycharmProjects\fhir_questionnaire_item_populator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\PycharmProjects\pythonProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A0B431-274D-4EAE-8F4C-82C0B69810CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656BFDD5-4C21-4D14-835B-6B8B84A8F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D6CCBEFA-14F7-4D58-B784-0C5A9DA8EF6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D6CCBEFA-14F7-4D58-B784-0C5A9DA8EF6F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="german" sheetId="1" r:id="rId1"/>
+    <sheet name="french" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -201,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,23 +533,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940D8FA8-F46D-42CA-8551-324811725356}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="6" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,11 +564,8 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -586,46 +582,25 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -642,40 +617,22 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -692,22 +649,13 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -724,25 +672,13 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
         <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -752,14 +688,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC61F7AF-2250-4A9C-B68C-62A8C68E0947}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>german!A1</f>
+        <v>linkid</v>
+      </c>
+      <c r="B1" t="str">
+        <f>german!B1</f>
+        <v>prefix</v>
+      </c>
+      <c r="C1" t="str">
+        <f>german!C1</f>
+        <v>enableWhenBlock</v>
+      </c>
+      <c r="D1" t="str">
+        <f>german!D1</f>
+        <v>numAnswers</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>german!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>german!B2</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <f>german!C2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>german!D2</f>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>german!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>german!B3</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="b">
+        <f>german!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>german!D3</f>
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>german!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>german!B4</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="b">
+        <f>german!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>german!D4</f>
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>german!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>german!B5</f>
+        <v>4</v>
+      </c>
+      <c r="C5" t="b">
+        <f>german!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>german!D5</f>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\PycharmProjects\fhir_questionnaire_item_populator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BE6B69-08D8-4704-B76C-DB50F31963D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D99D53-FF77-4724-AB02-49E5307B587B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D6CCBEFA-14F7-4D58-B784-0C5A9DA8EF6F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
   <si>
     <t>linkid</t>
   </si>
@@ -61,265 +61,202 @@
     <t>question_text_fr</t>
   </si>
   <si>
-    <t>Waren Sie in den letzten 12 Monaten mindestens eine Nacht wegen krebsbedingter Pflege oder Behandlung in dem im Einladungsschreiben genannten Spital? </t>
-  </si>
-  <si>
-    <t>SCAPE-21</t>
-  </si>
-  <si>
-    <t>Haben sich Mitglieder der Ärzteschaft und Pflegefachpersonen vor Ihnen unterhalten, als ob Sie nicht da wären? </t>
-  </si>
-  <si>
-    <t>SCAPE-22</t>
-  </si>
-  <si>
-    <t>Haben Sie den Ärzt:innen vertraut, die Sie betreut haben? </t>
-  </si>
-  <si>
-    <t>SCAPE-23</t>
-  </si>
-  <si>
-    <t>Wenn ein Mitglied Ihrer Familie oder eine nahestehende Person mit einem/r Arzt/Ärztin sprechen wollte, war das möglich? </t>
-  </si>
-  <si>
-    <t>SCAPE-24</t>
-  </si>
-  <si>
-    <t>Haben Sie den Pflegefachpersonen vertraut, die Sie betreut haben? </t>
-  </si>
-  <si>
-    <t>SCAPE-25</t>
-  </si>
-  <si>
-    <t>Hatten Sie bei den Gesprächen über Ihre Krankheit oder Ihre Behandlung genügend Privatsphäre? </t>
-  </si>
-  <si>
-    <t>SCAPE-26</t>
-  </si>
-  <si>
-    <t>War ein Mitglied des Personals verfügbar, wenn Sie es brauchten? </t>
-  </si>
-  <si>
-    <t>SCAPE-27</t>
-  </si>
-  <si>
-    <t>Gab es während Ihres Spitalaufenthalts ein Mitglied des Personals, mit dem Sie über Ihre Bedenken und Ängste sprechen konnten? </t>
-  </si>
-  <si>
-    <t>SCAPE-28</t>
-  </si>
-  <si>
-    <t>Denken Sie, dass das Spitalpersonal alles Mögliche getan hat, um Ihnen beim Umgang mit Ihren Schmerzen zu helfen? </t>
-  </si>
-  <si>
-    <t>SCAPE-29</t>
-  </si>
-  <si>
-    <t>Sind Sie insgesamt der Meinung, dass Sie während Ihres Spitalaufenthalts mit Respekt und Würde behandelt wurden? </t>
-  </si>
-  <si>
-    <t>SCAPE-30</t>
-  </si>
-  <si>
-    <t>Hat man Ihnen schriftliche Informationen dazu gegeben, was Sie tun oder nicht tun sollten, nachdem Sie das Spital verlassen haben? </t>
-  </si>
-  <si>
-    <t>SCAPE-31</t>
-  </si>
-  <si>
-    <t>Hat Ihnen ein Mitglied des Personals erklärt, auf welche Warnzeichen in Bezug auf Ihre Erkrankung oder Ihre Operation Sie zu Hause achten müssen? </t>
-  </si>
-  <si>
-    <t>SCAPE-32</t>
-  </si>
-  <si>
-    <t>Hat Ihnen das Personal gesagt, an wen Sie sich wenden können, wenn Sie nach dem Verlassen des Spitals Bedenken bezüglich Ihrer Erkrankung oder Behandlung haben? </t>
-  </si>
-  <si>
-    <t>SCAPE-33</t>
-  </si>
-  <si>
-    <t>Hat die Organisation Ihrer Entlassung aus dem Spital gut geklappt? </t>
-  </si>
-  <si>
-    <t>SCAPE-34</t>
-  </si>
-  <si>
-    <t>Ich weiss es nicht / Ich erinnere mich nicht </t>
-  </si>
-  <si>
-    <t>Ja, absolut </t>
-  </si>
-  <si>
     <t>Ja, bis zu einem gewissen Grad </t>
   </si>
   <si>
-    <t>Nein </t>
-  </si>
-  <si>
-    <t>Ja </t>
-  </si>
-  <si>
-    <t>Ja, und sie waren leicht zu verstehen </t>
-  </si>
-  <si>
-    <t>Ja, aber sie waren schwer zu verstehen </t>
-  </si>
-  <si>
     <t>Nein, aber ich hätte gerne welche gehabt </t>
   </si>
   <si>
-    <t>Ich habe keine schriftlichen Erklärungen gebraucht </t>
-  </si>
-  <si>
-    <t>Das war nicht nötig </t>
-  </si>
-  <si>
-    <t>Ja, oft </t>
-  </si>
-  <si>
-    <t>Ja, manchmal </t>
-  </si>
-  <si>
-    <t>Ja, allen </t>
-  </si>
-  <si>
-    <t>Ja, einigen </t>
-  </si>
-  <si>
-    <t>Nein, gar nicht </t>
-  </si>
-  <si>
-    <t>Meine Familie oder nahestehende Personen wollten nicht mit einem/r Arzt/Ärztin sprechen / betrifft mich nicht </t>
-  </si>
-  <si>
-    <t>Ja, manchen </t>
-  </si>
-  <si>
-    <t>Ja, immer </t>
-  </si>
-  <si>
-    <t>Ich habe keine Hilfe gebraucht </t>
-  </si>
-  <si>
-    <t>Ich hatte keine Bedenken oder Ängste </t>
-  </si>
-  <si>
-    <t>Ich hatte keine Schmerzen </t>
-  </si>
-  <si>
-    <t>Nein, aber ich hätte das gerne gehabt </t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein </t>
-  </si>
-  <si>
-    <t>Au cours des 12 derniers mois, avez-vous été hospitalisé·e au moins une nuit pour des soins ou traitements liés au cancer à l’hôpital mentionné dans la lettre d’invitation ? </t>
-  </si>
-  <si>
-    <t>Est-ce que des médecins et infirmier∙ères ont parlé devant vous comme si vous n’étiez pas là ? </t>
-  </si>
-  <si>
-    <t>Faisiez-vous confiance aux médecins qui se sont occupé∙es de vous ? </t>
-  </si>
-  <si>
-    <t>Lorsqu’un∙e membre de votre famille ou un∙e proche voulait parler à un∙e médecin, est-ce que cela a été possible ? </t>
-  </si>
-  <si>
-    <t>Faisiez-vous confiance aux infirmier∙ères qui se sont occupé∙es de vous ? </t>
-  </si>
-  <si>
-    <t>Avez-vous eu assez d’intimité lors des discussions au sujet de votre maladie ou de votre traitement ? </t>
-  </si>
-  <si>
-    <t>Est-ce qu’un∙e membre du personnel était disponible lorsque vous en aviez besoin ? </t>
-  </si>
-  <si>
-    <t>Durant votre hospitalisation, avez-vous trouvé un∙e membre du personnel pour parler de vos inquiétudes et de vos craintes ? </t>
-  </si>
-  <si>
-    <t>Pensez-vous que le personnel de l’hôpital a fait tout ce qu’il pouvait pour vous aider à gérer votre douleur ? </t>
-  </si>
-  <si>
-    <t>Globalement, pensez-vous qu’on vous a traité·e avec respect et dignité durant votre hospitalisation ? </t>
-  </si>
-  <si>
-    <t>Est-ce qu’on vous a donné des informations écrites sur ce que vous deviez faire ou ne pas faire après avoir quitté l’hôpital ? </t>
-  </si>
-  <si>
-    <t>Est-ce qu’un∙e membre du personnel vous a expliqué les signes d'alerte liés à votre maladie ou à votre opération, que vous deviez surveiller une fois rentré·e chez vous ? </t>
-  </si>
-  <si>
-    <t>Est-ce qu’un∙e membre du personnel de l’hôpital vous a dit qui contacter si vous aviez des inquiétudes quant à votre maladie ou votre traitement après avoir quitté l’hôpital ? </t>
-  </si>
-  <si>
-    <t>Est-ce que l'organisation de votre sortie s’est bien déroulée ? </t>
-  </si>
-  <si>
-    <t>Je ne sais pas / je ne m’en souviens plus </t>
-  </si>
-  <si>
     <t>Oui, tout à fait </t>
   </si>
   <si>
     <t>Oui, dans une certaine mesure </t>
   </si>
   <si>
-    <t>Non </t>
-  </si>
-  <si>
-    <t>Oui </t>
-  </si>
-  <si>
-    <t>Oui, et c’était facile à comprendre </t>
-  </si>
-  <si>
-    <t>Oui, mais c’était difficile à comprendre </t>
-  </si>
-  <si>
-    <t>Non, mais j’aurais aimé en recevoir </t>
-  </si>
-  <si>
-    <t>Je n’ai pas eu besoin d’informations écrites </t>
-  </si>
-  <si>
-    <t>Cela n’a pas été nécessaire </t>
-  </si>
-  <si>
-    <t>Oui, souvent </t>
-  </si>
-  <si>
-    <t>Oui, parfois </t>
-  </si>
-  <si>
-    <t>Oui, à tous∙tes </t>
-  </si>
-  <si>
-    <t>Oui, à certain∙es </t>
-  </si>
-  <si>
-    <t>Non, à aucun∙e </t>
-  </si>
-  <si>
-    <t>Ma famille ou mes proches n’ont pas souhaité parler à un∙e médecin / non concerné∙e </t>
-  </si>
-  <si>
-    <t>Oui, toujours </t>
-  </si>
-  <si>
-    <t>Je n’ai pas eu besoin d’aide </t>
-  </si>
-  <si>
-    <t>Je n’ai pas eu d’inquiétudes ou de craintes </t>
-  </si>
-  <si>
-    <t>Je n’ai pas eu de douleur </t>
-  </si>
-  <si>
-    <t>Non, mais j’aurais aimé </t>
+    <t>SCAPE-44</t>
+  </si>
+  <si>
+    <t>Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten? </t>
+  </si>
+  <si>
+    <t>SCAPE-44.1</t>
+  </si>
+  <si>
+    <t>Ja, absolut</t>
+  </si>
+  <si>
+    <t>Nein, das war nicht nötig</t>
+  </si>
+  <si>
+    <t>SCAPE-44.2</t>
+  </si>
+  <si>
+    <t>SCAPE-44.3</t>
+  </si>
+  <si>
+    <t>SCAPE-44.4</t>
+  </si>
+  <si>
+    <t>SCAPE-44.5</t>
+  </si>
+  <si>
+    <t>SCAPE-44.6</t>
+  </si>
+  <si>
+    <t>SCAPE-45</t>
+  </si>
+  <si>
+    <t>Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>SCAPE-45.1</t>
+  </si>
+  <si>
+    <t>Ja, bis zu einem gewissen Grad</t>
+  </si>
+  <si>
+    <t>Nein, ich habe die Erklärung nicht verstanden</t>
+  </si>
+  <si>
+    <t>Ich habe keine Informationen bekommen, aber ich hätte gerne welche gehabt</t>
+  </si>
+  <si>
+    <t>Ich habe keine Informationen gebraucht</t>
+  </si>
+  <si>
+    <t>Es ist zu früh, um zu wissen, ob die Behandlung wirkt</t>
+  </si>
+  <si>
+    <t>SCAPE-45.2</t>
+  </si>
+  <si>
+    <t>SCAPE-45.3</t>
+  </si>
+  <si>
+    <t>SCAPE-45.4</t>
+  </si>
+  <si>
+    <t>SCAPE-45.5</t>
+  </si>
+  <si>
+    <t>SCAPE-45.6</t>
+  </si>
+  <si>
+    <t>Est-ce qu’on vous a proposé des conseils pratiques et/ou du soutien pour faire face aux effets indésirables du traitement ? </t>
+  </si>
+  <si>
+    <t>Concernant la chirurgie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Concernant la chimiothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour faire face aux effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Concernant la radiothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Concernant l'hormonothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Concernant l'immunothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Concernant la thérapie ciblée, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Une fois le traitement commencé, avez-vous reçu des informations compréhensibles sur ses résultats ? </t>
+  </si>
+  <si>
+    <t>Non, je n’ai pas compris les informations </t>
+  </si>
+  <si>
+    <t>Non, je n’ai pas eu d’informations, mais j’en aurais voulu </t>
+  </si>
+  <si>
+    <t>Je n’ai pas eu besoin d’informations </t>
+  </si>
+  <si>
+    <t>Il est trop tôt pour savoir si le traitement donne des résultats </t>
+  </si>
+  <si>
+    <t>Chirurgie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Radiothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Hormonothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Immunothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Thérapie ciblée, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirurgie : avez-vous reçu des informations compréhensibles sur les effets du traitement après son début ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimiothérapie : avez-vous reçu des informations compréhensibles sur ses effets après le début du traitement ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiothérapie : avez-vous reçu des informations compréhensibles sur ses effets après le début du traitement ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormonothérapie : avez-vous reçu des informations compréhensibles sur ses effets après le début du traitement ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immunothérapie : avez-vous reçu des informations compréhensibles sur ses effets après le début du traitement ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thérapie ciblée : avez-vous reçu des informations compréhensibles sur les effets du traitement après son début ? </t>
+  </si>
+  <si>
+    <t>Chirurgie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Chemotherapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Strahlentherapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Hormontherapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Immuntherapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Zielgerichtete Therapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Chirurgie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Chemotherapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Strahlentherapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Hormontherapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Immuntherapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Zielgerichtete Therapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Oui, tout à fait</t>
+  </si>
+  <si>
+    <t>Oui, dans une certaine mesure</t>
+  </si>
+  <si>
+    <t>Non, mais j’aurais aimé qu’on m’en propose</t>
+  </si>
+  <si>
+    <t>Cela n’a pas été nécessaire</t>
   </si>
 </sst>
 </file>
@@ -1011,14 +948,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940D8FA8-F46D-42CA-8551-324811725356}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="12" width="17.140625" customWidth="1"/>
@@ -1030,7 +968,7 @@
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,389 +985,422 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>44.1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>44.2</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
       <c r="H4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>44.3</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>44.4</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>44.5</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
+        <v>44.6</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>45.1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
+      <c r="K10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>45.2</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
-        <v>29</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B12">
+        <v>45.3</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B13">
+        <v>45.4</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>32</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
+        <v>45.5</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
       <c r="B15">
-        <v>34</v>
+        <v>45.6</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1441,14 +1412,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC61F7AF-2250-4A9C-B68C-62A8C68E0947}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F3" sqref="F3:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="12" width="17.140625" customWidth="1"/>
@@ -1460,7 +1432,7 @@
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1477,35 +1449,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>44.1</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1514,24 +1480,30 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>44.2</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1540,24 +1512,30 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>44.3</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1566,27 +1544,30 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>44.4</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1595,24 +1576,30 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>44.5</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1621,24 +1608,30 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>44.6</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1647,27 +1640,30 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1676,27 +1672,15 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>45.1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1705,27 +1689,33 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>45.2</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1734,24 +1724,33 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>45.3</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1760,30 +1759,33 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>45.4</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1792,27 +1794,33 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>45.5</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1821,27 +1829,33 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>45.6</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1850,16 +1864,25 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\PycharmProjects\fhir_questionnaire_item_populator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B466733-C9D4-4695-85A3-1D97B38F533A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF91DA77-FC2B-4D6D-8BB0-1485BCC34915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D6CCBEFA-14F7-4D58-B784-0C5A9DA8EF6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D6CCBEFA-14F7-4D58-B784-0C5A9DA8EF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="german" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="131">
   <si>
     <t>linkid</t>
   </si>
@@ -61,52 +61,376 @@
     <t>question_text_fr</t>
   </si>
   <si>
-    <t>SCAPE-90</t>
-  </si>
-  <si>
-    <t>Gab es während Ihrer Krebsversorgung etwas, das Sie besonders schätzen oder geschätzt haben? </t>
-  </si>
-  <si>
-    <t>SCAPE-91</t>
-  </si>
-  <si>
-    <t>Gibt es etwas, das verbessert werden könnte? </t>
-  </si>
-  <si>
-    <t>SCAPE-92</t>
-  </si>
-  <si>
-    <t>Weitere Bemerkungen </t>
-  </si>
-  <si>
-    <t>SCAPE-93</t>
-  </si>
-  <si>
-    <t>Wie haben Sie diesen Fragebogen ausgefüllt? </t>
-  </si>
-  <si>
-    <t>Alleine</t>
-  </si>
-  <si>
-    <t>Mit Hilfe von jemanden</t>
-  </si>
-  <si>
-    <t>Y a-t-il quelque chose que vous appréciez ou que vous avez particulièrement apprécié durant la prise en charge de votre cancer ? </t>
-  </si>
-  <si>
-    <t>Y a-t-il quelque chose qui pourrait être amélioré ? </t>
-  </si>
-  <si>
-    <t>Autres commentaires </t>
-  </si>
-  <si>
-    <t>Vous avez rempli ce questionnaire </t>
-  </si>
-  <si>
-    <t>Seul·e</t>
-  </si>
-  <si>
-    <t>Avec l’aide de quelqu’un </t>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Au cours des 12 derniers mois, quel(s) type(s) de traitement avez-vous reçu(s) contre le cancer ? (Cochez tout ce qui s’applique.) </t>
+  </si>
+  <si>
+    <t>Chirurgie </t>
+  </si>
+  <si>
+    <t>Chimiothérapie </t>
+  </si>
+  <si>
+    <t>Radiothérapie </t>
+  </si>
+  <si>
+    <t>Hormonothérapie </t>
+  </si>
+  <si>
+    <t>Immunothérapie </t>
+  </si>
+  <si>
+    <t>Thérapie ciblée </t>
+  </si>
+  <si>
+    <t>Autre </t>
+  </si>
+  <si>
+    <t>J'ai reçu mon/mes traitement(s) il y a plus de 12 mois </t>
+  </si>
+  <si>
+    <t>Je n’ai pas encore reçu de traitement </t>
+  </si>
+  <si>
+    <t>Je ne sais pas </t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>42.1.1</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Chirurgie : avez-vous reçu toutes les informations dont vous aviez besoin à ce sujet avant le traitement ?</t>
+  </si>
+  <si>
+    <t>Oui, tout à fait </t>
+  </si>
+  <si>
+    <t>Oui, dans une certaine mesure </t>
+  </si>
+  <si>
+    <t>42.1.2</t>
+  </si>
+  <si>
+    <t>Chirurgie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>Oui, tout à fait</t>
+  </si>
+  <si>
+    <t>Oui, dans une certaine mesure</t>
+  </si>
+  <si>
+    <t>Non, mais j’aurais aimé qu’on m’en propose</t>
+  </si>
+  <si>
+    <t>Cela n’a pas été nécessaire</t>
+  </si>
+  <si>
+    <t>42.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirurgie : avez-vous reçu des informations compréhensibles sur les effets du traitement après son début ? </t>
+  </si>
+  <si>
+    <t>Non, je n’ai pas compris les informations </t>
+  </si>
+  <si>
+    <t>Non, je n’ai pas eu d’informations, mais j’en aurais voulu </t>
+  </si>
+  <si>
+    <t>Je n’ai pas eu besoin d’informations </t>
+  </si>
+  <si>
+    <t>Il est trop tôt pour savoir si le traitement donne des résultats </t>
+  </si>
+  <si>
+    <t>42.2.1</t>
+  </si>
+  <si>
+    <t>Chimiothérapie : avez-vous reçu toutes les informations dont vous aviez besoin à ce sujet avant le traitement ?</t>
+  </si>
+  <si>
+    <t>42.2.2</t>
+  </si>
+  <si>
+    <t>Chimiothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour faire face aux effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>42.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimiothérapie : avez-vous reçu des informations compréhensibles sur ses effets après le début du traitement ? </t>
+  </si>
+  <si>
+    <t>42.3.1</t>
+  </si>
+  <si>
+    <t>Radiothérapie : avez-vous reçu toutes les informations dont vous aviez besoin à ce sujet avant le traitement ?</t>
+  </si>
+  <si>
+    <t>42.3.2</t>
+  </si>
+  <si>
+    <t>Radiothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>42.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiothérapie : avez-vous reçu des informations compréhensibles sur ses effets après le début du traitement ? </t>
+  </si>
+  <si>
+    <t>42.4.1</t>
+  </si>
+  <si>
+    <t>Hormonothérapie : avez-vous reçu toutes les informations dont vous aviez besoin à ce sujet avant le traitement ?</t>
+  </si>
+  <si>
+    <t>42.4.2</t>
+  </si>
+  <si>
+    <t>Hormonothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>42.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormonothérapie : avez-vous reçu des informations compréhensibles sur ses effets après le début du traitement ? </t>
+  </si>
+  <si>
+    <t>42.5.1</t>
+  </si>
+  <si>
+    <t>Immunothérapie : avez-vous reçu toutes les informations dont vous aviez besoin à ce sujet avant le traitement ?</t>
+  </si>
+  <si>
+    <t>42.5.2</t>
+  </si>
+  <si>
+    <t>Immunothérapie, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>42.5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immunothérapie : avez-vous reçu des informations compréhensibles sur ses effets après le début du traitement ? </t>
+  </si>
+  <si>
+    <t>42.6.1</t>
+  </si>
+  <si>
+    <t>Thérapie ciblée : avez-vous reçu toutes les informations dont vous aviez besoin à ce sujet avant le traitement ?</t>
+  </si>
+  <si>
+    <t>42.6.2</t>
+  </si>
+  <si>
+    <t>Thérapie ciblée, vous a-t-on proposé des conseils pratiques et/ou un soutien pour gérer les effets secondaires du traitement ?</t>
+  </si>
+  <si>
+    <t>42.6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thérapie ciblée : avez-vous reçu des informations compréhensibles sur les effets du traitement après son début ? </t>
+  </si>
+  <si>
+    <t>42.7.1</t>
+  </si>
+  <si>
+    <t>Welche Art(en) von Krebsbehandlung haben Sie in den letzten 12 Monaten erhalten? (Wählen Sie alles an, was zutrifft.) </t>
+  </si>
+  <si>
+    <t>Ich habe meine Behandlung(en) vor mehr als 12 Monaten erhalten </t>
+  </si>
+  <si>
+    <t>Ich habe noch keine Behandlung erhalten </t>
+  </si>
+  <si>
+    <t>Chirurgie</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Chirurgie: Haben Sie vor der Behandlung alle Informationen erhalten, die Sie darüber benötigten?</t>
+  </si>
+  <si>
+    <t>Ja, absolut </t>
+  </si>
+  <si>
+    <t>Ja, bis zu einem gewissen Grad </t>
+  </si>
+  <si>
+    <t>Chirurgie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Ja, absolut</t>
+  </si>
+  <si>
+    <t>Nein, aber ich hätte gerne welche gehabt </t>
+  </si>
+  <si>
+    <t>Chirurgie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Ja, bis zu einem gewissen Grad</t>
+  </si>
+  <si>
+    <t>Chemotherapie </t>
+  </si>
+  <si>
+    <t>Chemotherapie: Haben Sie vor der Behandlung alle Informationen erhalten, die Sie darüber benötigten?</t>
+  </si>
+  <si>
+    <t>Chemotherapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Chemotherapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Strahlentherapie </t>
+  </si>
+  <si>
+    <t>Strahlentherapie: Haben Sie vor der Behandlung alle Informationen erhalten, die Sie darüber benötigten?</t>
+  </si>
+  <si>
+    <t>Strahlentherapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Strahlentherapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Hormontherapie </t>
+  </si>
+  <si>
+    <t>Hormontherapie: Haben Sie vor der Behandlung alle Informationen erhalten, die Sie darüber benötigten?</t>
+  </si>
+  <si>
+    <t>Hormontherapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Hormontherapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Immuntherapie </t>
+  </si>
+  <si>
+    <t>Immuntherapie: Haben Sie vor der Behandlung alle Informationen erhalten, die Sie darüber benötigten?</t>
+  </si>
+  <si>
+    <t>Immuntherapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Immuntherapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Zielgerichtete Therapie</t>
+  </si>
+  <si>
+    <t>Zielgerichtete Therapie: Haben Sie vor der Behandlung alle Informationen erhalten, die Sie darüber benötigten?</t>
+  </si>
+  <si>
+    <t>Zielgerichtete Therapie: Hat man Ihnen praktische Ratschläge und/oder Unterstützung für den Umgang mit den Nebenwirkungen der Behandlung angeboten?</t>
+  </si>
+  <si>
+    <t>Zielgerichtete Therapie: Haben Sie nach Beginn der Behandlung verständliche Informationen zu ihrer Wirkung erhalten? </t>
+  </si>
+  <si>
+    <t>Andere</t>
+  </si>
+  <si>
+    <t>SCAPE-42</t>
+  </si>
+  <si>
+    <t>SCAPE-42.1</t>
+  </si>
+  <si>
+    <t>SCAPE-42.1.1</t>
+  </si>
+  <si>
+    <t>SCAPE-42.1.2</t>
+  </si>
+  <si>
+    <t>SCAPE-42.1.3</t>
+  </si>
+  <si>
+    <t>SCAPE-42.2</t>
+  </si>
+  <si>
+    <t>SCAPE-42.2.1</t>
+  </si>
+  <si>
+    <t>SCAPE-42.2.2</t>
+  </si>
+  <si>
+    <t>SCAPE-42.2.3</t>
+  </si>
+  <si>
+    <t>SCAPE-42.3</t>
+  </si>
+  <si>
+    <t>SCAPE-42.3.1</t>
+  </si>
+  <si>
+    <t>SCAPE-42.3.2</t>
+  </si>
+  <si>
+    <t>SCAPE-42.3.3</t>
+  </si>
+  <si>
+    <t>SCAPE-42.4</t>
+  </si>
+  <si>
+    <t>SCAPE-42.4.1</t>
+  </si>
+  <si>
+    <t>SCAPE-42.4.2</t>
+  </si>
+  <si>
+    <t>SCAPE-42.4.3</t>
+  </si>
+  <si>
+    <t>SCAPE-42.5</t>
+  </si>
+  <si>
+    <t>SCAPE-42.5.1</t>
+  </si>
+  <si>
+    <t>SCAPE-42.5.2</t>
+  </si>
+  <si>
+    <t>SCAPE-42.5.3</t>
+  </si>
+  <si>
+    <t>SCAPE-42.6</t>
+  </si>
+  <si>
+    <t>SCAPE-42.6.1</t>
+  </si>
+  <si>
+    <t>SCAPE-42.6.2</t>
+  </si>
+  <si>
+    <t>SCAPE-42.6.3</t>
+  </si>
+  <si>
+    <t>SCAPE-42.7</t>
+  </si>
+  <si>
+    <t>SCAPE-42.7.1</t>
   </si>
 </sst>
 </file>
@@ -150,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -798,13 +1122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940D8FA8-F46D-42CA-8551-324811725356}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.85546875" customWidth="1"/>
@@ -818,7 +1142,7 @@
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -835,78 +1159,655 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3">
+        <v>42.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>42.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11">
+        <v>42.3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>42.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>42.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23">
+        <v>42.6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27">
+        <v>42.7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -918,13 +1819,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC61F7AF-2250-4A9C-B68C-62A8C68E0947}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.85546875" customWidth="1"/>
@@ -938,7 +1839,7 @@
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -955,78 +1856,760 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B2">
-        <v>90</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3">
+        <v>42.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>91</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>42.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11">
+        <v>42.3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>92</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>42.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>42.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>93</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23">
+        <v>42.6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27">
+        <v>42.7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +2625,7 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
